--- a/biology/Médecine/1169_en_santé_et_médecine/1169_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1169_en_santé_et_médecine/1169_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1169_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1169_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1169 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1169_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1169_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Fondations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Fondation à Cambridge, en Angleterre, d'une léproserie placée sous le patronage de Marie-Madeleine[1].
-Fondation de St. Peter's Hospital, à Windsor, dans le Berkshire, en Angleterre[2].
-Peu après son retour de la croisade, Guillaume IV, seigneur de Parthenay, fonde le prieuré maison-Dieu de la Madeleine, hôpital de marchands et de pèlerins situé hors les murs de Châtillon-sur-Thouet en Poitou, sur la route de Parthenay[3].
-Roger de Pont L'Évêque, archevêque d'York, confirme aux sœurs de Kynewaldgrave le don de la dîme de ses terres de Bimannesconge, ce qui peut-être tenu pour l'acte fondateur de l'hôpital St. Mary Magdalene de Killingwoldgraves, dans le Yorkshire, en Angleterre[4].
-Avant 1169 : fondation par Roger of Ash d'une léproserie à Seaford, dans le Sussex, en Angleterre[5].
-Entre 1146 et 1169 : Arnould de Markene, seigneur d'Ardres près de Calais, fonde une léproserie à Lostebarne, et Arnould Ier, comte de Guînes, en fonde une autre dans le voisinage, à Spelleke[6].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Fondation à Cambridge, en Angleterre, d'une léproserie placée sous le patronage de Marie-Madeleine.
+Fondation de St. Peter's Hospital, à Windsor, dans le Berkshire, en Angleterre.
+Peu après son retour de la croisade, Guillaume IV, seigneur de Parthenay, fonde le prieuré maison-Dieu de la Madeleine, hôpital de marchands et de pèlerins situé hors les murs de Châtillon-sur-Thouet en Poitou, sur la route de Parthenay.
+Roger de Pont L'Évêque, archevêque d'York, confirme aux sœurs de Kynewaldgrave le don de la dîme de ses terres de Bimannesconge, ce qui peut-être tenu pour l'acte fondateur de l'hôpital St. Mary Magdalene de Killingwoldgraves, dans le Yorkshire, en Angleterre.
+Avant 1169 : fondation par Roger of Ash d'une léproserie à Seaford, dans le Sussex, en Angleterre.
+Entre 1146 et 1169 : Arnould de Markene, seigneur d'Ardres près de Calais, fonde une léproserie à Lostebarne, et Arnould Ier, comte de Guînes, en fonde une autre dans le voisinage, à Spelleke.</t>
         </is>
       </c>
     </row>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1169_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1169_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,9 +560,11 @@
           <t>Événement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Des « frères combattants » sont mentionnés pour la première fois chez les Hospitaliers[7].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Des « frères combattants » sont mentionnés pour la première fois chez les Hospitaliers.</t>
         </is>
       </c>
     </row>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1169_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1169_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,9 +592,11 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Averroès (1126-1198), Commentaire sur le Traité des animaux d'Aristote[8].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Averroès (1126-1198), Commentaire sur le Traité des animaux d'Aristote.</t>
         </is>
       </c>
     </row>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1169_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1169_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,9 +624,11 @@
           <t>Personnalité</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Fl. Eudes, médecin, « témoin dans un acte intéressant l'abbaye de Prémontré[9] ».</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Fl. Eudes, médecin, « témoin dans un acte intéressant l'abbaye de Prémontré ».</t>
         </is>
       </c>
     </row>
